--- a/docs/DistributionTable.xlsx
+++ b/docs/DistributionTable.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="23970" windowHeight="7830"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23970" windowHeight="7830"/>
   </bookViews>
   <sheets>
     <sheet name="heterogenous" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="38">
   <si>
     <t>Parameter Name (code)</t>
   </si>
@@ -108,6 +108,36 @@
   </si>
   <si>
     <t>[0 Exponential, 1 Gaussian]</t>
+  </si>
+  <si>
+    <t>MPS</t>
+  </si>
+  <si>
+    <t>TI_rivlen</t>
+  </si>
+  <si>
+    <t>TI_rivwidth</t>
+  </si>
+  <si>
+    <t>500m-2km</t>
+  </si>
+  <si>
+    <t>TI_sinuosity</t>
+  </si>
+  <si>
+    <t>27km of Salinas Valley = 37km of river</t>
+  </si>
+  <si>
+    <t>Quick measurements from N Sal Valley</t>
+  </si>
+  <si>
+    <t>2-4km</t>
+  </si>
+  <si>
+    <t>TI_rivwavelength</t>
+  </si>
+  <si>
+    <t>continuous</t>
   </si>
 </sst>
 </file>
@@ -434,10 +464,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -571,6 +601,52 @@
         <v>22</v>
       </c>
     </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15">
+        <v>1.341</v>
+      </c>
+      <c r="D15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" t="s">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/docs/DistributionTable.xlsx
+++ b/docs/DistributionTable.xlsx
@@ -9,10 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23970" windowHeight="7830"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10590" windowHeight="7830"/>
   </bookViews>
   <sheets>
-    <sheet name="heterogenous" sheetId="1" r:id="rId1"/>
+    <sheet name="ALL" sheetId="4" r:id="rId1"/>
+    <sheet name="homogenous" sheetId="3" r:id="rId2"/>
+    <sheet name="heterogenous" sheetId="1" r:id="rId3"/>
+    <sheet name="mps" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="74">
   <si>
     <t>Parameter Name (code)</t>
   </si>
@@ -138,6 +141,114 @@
   </si>
   <si>
     <t>continuous</t>
+  </si>
+  <si>
+    <t>head_inland_sum</t>
+  </si>
+  <si>
+    <t>head_inland_wint</t>
+  </si>
+  <si>
+    <t>hk</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>hk1</t>
+  </si>
+  <si>
+    <t>hk2</t>
+  </si>
+  <si>
+    <t>lith_prop</t>
+  </si>
+  <si>
+    <t>vario_type</t>
+  </si>
+  <si>
+    <t>corr_len</t>
+  </si>
+  <si>
+    <t>corr_len_zx</t>
+  </si>
+  <si>
+    <t>corr_len_yx</t>
+  </si>
+  <si>
+    <t>vka</t>
+  </si>
+  <si>
+    <t>al</t>
+  </si>
+  <si>
+    <t>dmcoef</t>
+  </si>
+  <si>
+    <t>wel[0-3]</t>
+  </si>
+  <si>
+    <t>Head level at inland boundary during "summer" season</t>
+  </si>
+  <si>
+    <t>Head level at inland boundary during "winter"  season</t>
+  </si>
+  <si>
+    <t>Ratio of vertical to horizontal hydraulic conductivity</t>
+  </si>
+  <si>
+    <t>Longitudinal dispersivity</t>
+  </si>
+  <si>
+    <t>Diffusion coefficient</t>
+  </si>
+  <si>
+    <t>Extraction rate of well (numbered 0 to 3)</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>m^3</t>
+  </si>
+  <si>
+    <t>Stage of the river</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>riv_stg</t>
+  </si>
+  <si>
+    <t>Conductance of river bed</t>
+  </si>
+  <si>
+    <t>m^2/d</t>
+  </si>
+  <si>
+    <t>riv_cond</t>
+  </si>
+  <si>
+    <t>m^2/s</t>
+  </si>
+  <si>
+    <t>por</t>
   </si>
 </sst>
 </file>
@@ -188,7 +299,218 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="21">
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -464,17 +786,580 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="51" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" t="s">
+        <v>66</v>
+      </c>
+      <c r="E8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" t="s">
+        <v>66</v>
+      </c>
+      <c r="E9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="D2:D1048576">
+    <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="A">
+      <formula>NOT(ISERROR(SEARCH("A",D2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="10" priority="2" operator="containsText" text="W">
+      <formula>NOT(ISERROR(SEARCH("W",D2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="9" priority="3" operator="containsText" text="S">
+      <formula>NOT(ISERROR(SEARCH("S",D2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="16" operator="containsText" text="A" id="{8535A46F-41E7-4A3B-8D86-508D92BD288B}">
+            <xm:f>NOT(ISERROR(SEARCH("A",ALL!#REF!)))</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF006100"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFC6EFCE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="17" operator="containsText" text="W" id="{E9022350-747B-4EEE-91C2-EAFCCAD5B5CD}">
+            <xm:f>NOT(ISERROR(SEARCH("W",ALL!#REF!)))</xm:f>
+            <x14:dxf>
+              <font>
+                <color theme="3"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="4" tint="0.59996337778862885"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="18" operator="containsText" text="S" id="{A8BC000A-BB25-4B88-8C51-FD8B64160A3A}">
+            <xm:f>NOT(ISERROR(SEARCH("S",ALL!#REF!)))</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C6500"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFEB9C"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>D2:D3</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="34" operator="containsText" text="A" id="{8535A46F-41E7-4A3B-8D86-508D92BD288B}">
+            <xm:f>NOT(ISERROR(SEARCH("A",ALL!D1048541)))</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF006100"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFC6EFCE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="35" operator="containsText" text="W" id="{E9022350-747B-4EEE-91C2-EAFCCAD5B5CD}">
+            <xm:f>NOT(ISERROR(SEARCH("W",ALL!D1048541)))</xm:f>
+            <x14:dxf>
+              <font>
+                <color theme="3"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="4" tint="0.59996337778862885"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="36" operator="containsText" text="S" id="{A8BC000A-BB25-4B88-8C51-FD8B64160A3A}">
+            <xm:f>NOT(ISERROR(SEARCH("S",ALL!D1048541)))</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C6500"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFEB9C"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>D1048545:D1048576</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="40" operator="containsText" text="A" id="{8535A46F-41E7-4A3B-8D86-508D92BD288B}">
+            <xm:f>NOT(ISERROR(SEARCH("A",ALL!D16)))</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF006100"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFC6EFCE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="41" operator="containsText" text="W" id="{E9022350-747B-4EEE-91C2-EAFCCAD5B5CD}">
+            <xm:f>NOT(ISERROR(SEARCH("W",ALL!D16)))</xm:f>
+            <x14:dxf>
+              <font>
+                <color theme="3"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="4" tint="0.59996337778862885"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="42" operator="containsText" text="S" id="{A8BC000A-BB25-4B88-8C51-FD8B64160A3A}">
+            <xm:f>NOT(ISERROR(SEARCH("S",ALL!D16)))</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C6500"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFEB9C"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>D4:D1048544</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="47" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -495,160 +1380,52 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" t="s">
-        <v>14</v>
+      <c r="A2" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>20</v>
+        <v>32</v>
+      </c>
+      <c r="B5">
+        <v>1.341</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15">
-        <v>1.341</v>
-      </c>
-      <c r="D15" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" t="s">
         <v>37</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>